--- a/rstudio 2.xlsx
+++ b/rstudio 2.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>31.464289999999998</v>
       </c>
       <c r="B2" s="3">
-        <v>31.464289999999998</v>
+        <v>31.466290000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>31.511189999999999</v>
       </c>
       <c r="B3" s="4">
-        <v>31.51482</v>
+        <v>31.843699999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>36.248339999999999</v>
       </c>
       <c r="B4" s="4">
-        <v>29.257280000000002</v>
+        <v>34.237400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>49.391640000000002</v>
       </c>
       <c r="B6" s="4">
-        <v>36.640720000000002</v>
+        <v>40.640720000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>50.423020000000001</v>
       </c>
       <c r="B7" s="4">
-        <v>38.17201</v>
+        <v>54.841230000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>39.86956</v>
       </c>
       <c r="B8" s="4">
-        <v>57.170110000000001</v>
+        <v>44.170110000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>37.637050000000002</v>
       </c>
       <c r="B9" s="4">
-        <v>58.382579999999997</v>
+        <v>33.823740000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>55.888120000000001</v>
       </c>
       <c r="B10" s="4">
-        <v>47.582050000000002</v>
+        <v>47.657049999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>55.119329999999998</v>
       </c>
       <c r="B11" s="4">
-        <v>48.498579999999997</v>
+        <v>48.421579999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>57.563220000000001</v>
       </c>
       <c r="B12" s="4">
-        <v>63.397860000000001</v>
+        <v>62.345860000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>67.379059999999996</v>
       </c>
       <c r="B14" s="4">
-        <v>66.938540000000003</v>
+        <v>68.945639999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>66.973460000000003</v>
       </c>
       <c r="B15" s="4">
-        <v>68.284670000000006</v>
+        <v>69.273349999999994</v>
       </c>
     </row>
   </sheetData>
